--- a/covidnuevos.xlsx
+++ b/covidnuevos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guille/Desktop/Proyecto Python/Streamlit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guille/Desktop/enciclopedia-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E2C9E3-41FC-D24A-BF72-5AC6D2E6CF4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F51BDE2-D2C4-B743-B1D6-63E402375A68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14020" yWindow="460" windowWidth="11580" windowHeight="14460" xr2:uid="{DEAB5E75-1E02-234E-A53B-E1AE0F18B3FC}"/>
+    <workbookView xWindow="1980" yWindow="460" windowWidth="23620" windowHeight="14460" xr2:uid="{DEAB5E75-1E02-234E-A53B-E1AE0F18B3FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -478,6 +478,18 @@
           <cell r="CY2">
             <v>12679</v>
           </cell>
+          <cell r="CZ2">
+            <v>12708</v>
+          </cell>
+          <cell r="DA2">
+            <v>12726</v>
+          </cell>
+          <cell r="DB2">
+            <v>12743</v>
+          </cell>
+          <cell r="DC2">
+            <v>12759</v>
+          </cell>
         </row>
         <row r="3">
           <cell r="B3">
@@ -786,6 +798,18 @@
           <cell r="CY3">
             <v>5695</v>
           </cell>
+          <cell r="CZ3">
+            <v>5711</v>
+          </cell>
+          <cell r="DA3">
+            <v>5731</v>
+          </cell>
+          <cell r="DB3">
+            <v>5734</v>
+          </cell>
+          <cell r="DC3">
+            <v>5757</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="B4">
@@ -1094,6 +1118,18 @@
           <cell r="CY4">
             <v>2303</v>
           </cell>
+          <cell r="CZ4">
+            <v>2314</v>
+          </cell>
+          <cell r="DA4">
+            <v>2316</v>
+          </cell>
+          <cell r="DB4">
+            <v>2316</v>
+          </cell>
+          <cell r="DC4">
+            <v>2320</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="B5">
@@ -1402,6 +1438,18 @@
           <cell r="CY5">
             <v>18907</v>
           </cell>
+          <cell r="CZ5">
+            <v>18925</v>
+          </cell>
+          <cell r="DA5">
+            <v>18956</v>
+          </cell>
+          <cell r="DB5">
+            <v>19009</v>
+          </cell>
+          <cell r="DC5">
+            <v>19042</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="B6">
@@ -1710,6 +1758,18 @@
           <cell r="CY6">
             <v>17259</v>
           </cell>
+          <cell r="CZ6">
+            <v>17310</v>
+          </cell>
+          <cell r="DA6">
+            <v>17355</v>
+          </cell>
+          <cell r="DB6">
+            <v>17393</v>
+          </cell>
+          <cell r="DC6">
+            <v>17431</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="B7">
@@ -2018,6 +2078,18 @@
           <cell r="CY7">
             <v>59019</v>
           </cell>
+          <cell r="CZ7">
+            <v>59035</v>
+          </cell>
+          <cell r="DA7">
+            <v>59112</v>
+          </cell>
+          <cell r="DB7">
+            <v>59163</v>
+          </cell>
+          <cell r="DC7">
+            <v>59182</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="B8">
@@ -2325,6 +2397,18 @@
           </cell>
           <cell r="CY8">
             <v>146</v>
+          </cell>
+          <cell r="CZ8">
+            <v>155</v>
+          </cell>
+          <cell r="DA8">
+            <v>155</v>
+          </cell>
+          <cell r="DB8">
+            <v>163</v>
+          </cell>
+          <cell r="DC8">
+            <v>163</v>
           </cell>
         </row>
         <row r="9">
@@ -2634,6 +2718,18 @@
           <cell r="CY9">
             <v>68852</v>
           </cell>
+          <cell r="CZ9">
+            <v>68960</v>
+          </cell>
+          <cell r="DA9">
+            <v>69112</v>
+          </cell>
+          <cell r="DB9">
+            <v>69236</v>
+          </cell>
+          <cell r="DC9">
+            <v>69423</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="B10">
@@ -2942,6 +3038,18 @@
           <cell r="CY10">
             <v>11228</v>
           </cell>
+          <cell r="CZ10">
+            <v>11238</v>
+          </cell>
+          <cell r="DA10">
+            <v>11254</v>
+          </cell>
+          <cell r="DB10">
+            <v>11265</v>
+          </cell>
+          <cell r="DC10">
+            <v>11285</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="B11">
@@ -3250,6 +3358,18 @@
           <cell r="CY11">
             <v>2966</v>
           </cell>
+          <cell r="CZ11">
+            <v>2971</v>
+          </cell>
+          <cell r="DA11">
+            <v>2974</v>
+          </cell>
+          <cell r="DB11">
+            <v>2973</v>
+          </cell>
+          <cell r="DC11">
+            <v>2976</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="B12">
@@ -3557,6 +3677,18 @@
           </cell>
           <cell r="CY12">
             <v>9129</v>
+          </cell>
+          <cell r="CZ12">
+            <v>9130</v>
+          </cell>
+          <cell r="DA12">
+            <v>9132</v>
+          </cell>
+          <cell r="DB12">
+            <v>9134</v>
+          </cell>
+          <cell r="DC12">
+            <v>9146</v>
           </cell>
         </row>
         <row r="13">
@@ -3866,6 +3998,18 @@
           <cell r="CY13">
             <v>2142</v>
           </cell>
+          <cell r="CZ13">
+            <v>2150</v>
+          </cell>
+          <cell r="DA13">
+            <v>2157</v>
+          </cell>
+          <cell r="DB13">
+            <v>2164</v>
+          </cell>
+          <cell r="DC13">
+            <v>2110</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="B14">
@@ -4174,6 +4318,18 @@
           <cell r="CY14">
             <v>2347</v>
           </cell>
+          <cell r="CZ14">
+            <v>2351</v>
+          </cell>
+          <cell r="DA14">
+            <v>2357</v>
+          </cell>
+          <cell r="DB14">
+            <v>2361</v>
+          </cell>
+          <cell r="DC14">
+            <v>2362</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="B15">
@@ -4482,6 +4638,18 @@
           <cell r="CY15">
             <v>4051</v>
           </cell>
+          <cell r="CZ15">
+            <v>4052</v>
+          </cell>
+          <cell r="DA15">
+            <v>4053</v>
+          </cell>
+          <cell r="DB15">
+            <v>4054</v>
+          </cell>
+          <cell r="DC15">
+            <v>4056</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="B16">
@@ -4790,6 +4958,18 @@
           <cell r="CY16">
             <v>121</v>
           </cell>
+          <cell r="CZ16">
+            <v>122</v>
+          </cell>
+          <cell r="DA16">
+            <v>122</v>
+          </cell>
+          <cell r="DB16">
+            <v>122</v>
+          </cell>
+          <cell r="DC16">
+            <v>122</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="B17">
@@ -5098,6 +5278,18 @@
           <cell r="CY17">
             <v>5259</v>
           </cell>
+          <cell r="CZ17">
+            <v>5259</v>
+          </cell>
+          <cell r="DA17">
+            <v>5261</v>
+          </cell>
+          <cell r="DB17">
+            <v>5265</v>
+          </cell>
+          <cell r="DC17">
+            <v>5275</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="B18">
@@ -5406,6 +5598,18 @@
           <cell r="CY18">
             <v>13511</v>
           </cell>
+          <cell r="CZ18">
+            <v>13513</v>
+          </cell>
+          <cell r="DA18">
+            <v>13523</v>
+          </cell>
+          <cell r="DB18">
+            <v>13527</v>
+          </cell>
+          <cell r="DC18">
+            <v>13529</v>
+          </cell>
         </row>
         <row r="19">
           <cell r="B19">
@@ -5714,6 +5918,18 @@
           <cell r="CY19">
             <v>2425</v>
           </cell>
+          <cell r="CZ19">
+            <v>2425</v>
+          </cell>
+          <cell r="DA19">
+            <v>2425</v>
+          </cell>
+          <cell r="DB19">
+            <v>2425</v>
+          </cell>
+          <cell r="DC19">
+            <v>2424</v>
+          </cell>
         </row>
         <row r="20">
           <cell r="B20">
@@ -6021,6 +6237,18 @@
           </cell>
           <cell r="CY20">
             <v>1599</v>
+          </cell>
+          <cell r="CZ20">
+            <v>1603</v>
+          </cell>
+          <cell r="DA20">
+            <v>1605</v>
+          </cell>
+          <cell r="DB20">
+            <v>1613</v>
+          </cell>
+          <cell r="DC20">
+            <v>1616</v>
           </cell>
         </row>
       </sheetData>
@@ -6326,10 +6554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52996CCC-C34D-124C-A8DE-C18D632F7042}">
-  <dimension ref="A1:CY42"/>
+  <dimension ref="A1:DC42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="CS1" workbookViewId="0">
-      <selection activeCell="CV14" sqref="CV14"/>
+      <selection activeCell="DA25" sqref="DA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6337,7 +6565,7 @@
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6647,8 +6875,20 @@
       <c r="CY1" s="1">
         <v>43982</v>
       </c>
+      <c r="CZ1" s="1">
+        <v>43983</v>
+      </c>
+      <c r="DA1" s="1">
+        <v>43984</v>
+      </c>
+      <c r="DB1" s="1">
+        <v>43985</v>
+      </c>
+      <c r="DC1" s="1">
+        <v>43986</v>
+      </c>
     </row>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7060,8 +7300,24 @@
         <f>[1]Hoja1!CY2-[1]Hoja1!CX2</f>
         <v>6</v>
       </c>
+      <c r="CZ2" s="3">
+        <f>[1]Hoja1!CZ2-[1]Hoja1!CY2</f>
+        <v>29</v>
+      </c>
+      <c r="DA2" s="3">
+        <f>[1]Hoja1!DA2-[1]Hoja1!CZ2</f>
+        <v>18</v>
+      </c>
+      <c r="DB2" s="3">
+        <f>[1]Hoja1!DB2-[1]Hoja1!DA2</f>
+        <v>17</v>
+      </c>
+      <c r="DC2" s="3">
+        <f>[1]Hoja1!DC2-[1]Hoja1!DB2</f>
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -7473,8 +7729,24 @@
         <f>[1]Hoja1!CY3-[1]Hoja1!CX3</f>
         <v>4</v>
       </c>
+      <c r="CZ3" s="3">
+        <f>[1]Hoja1!CZ3-[1]Hoja1!CY3</f>
+        <v>16</v>
+      </c>
+      <c r="DA3" s="3">
+        <f>[1]Hoja1!DA3-[1]Hoja1!CZ3</f>
+        <v>20</v>
+      </c>
+      <c r="DB3" s="3">
+        <f>[1]Hoja1!DB3-[1]Hoja1!DA3</f>
+        <v>3</v>
+      </c>
+      <c r="DC3" s="3">
+        <f>[1]Hoja1!DC3-[1]Hoja1!DB3</f>
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -7886,8 +8158,24 @@
         <f>[1]Hoja1!CY4-[1]Hoja1!CX4</f>
         <v>0</v>
       </c>
+      <c r="CZ4" s="3">
+        <f>[1]Hoja1!CZ4-[1]Hoja1!CY4</f>
+        <v>11</v>
+      </c>
+      <c r="DA4" s="3">
+        <f>[1]Hoja1!DA4-[1]Hoja1!CZ4</f>
+        <v>2</v>
+      </c>
+      <c r="DB4" s="3">
+        <f>[1]Hoja1!DB4-[1]Hoja1!DA4</f>
+        <v>0</v>
+      </c>
+      <c r="DC4" s="3">
+        <f>[1]Hoja1!DC4-[1]Hoja1!DB4</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -8299,8 +8587,24 @@
         <f>[1]Hoja1!CY5-[1]Hoja1!CX5</f>
         <v>44</v>
       </c>
+      <c r="CZ5" s="3">
+        <f>[1]Hoja1!CZ5-[1]Hoja1!CY5</f>
+        <v>18</v>
+      </c>
+      <c r="DA5" s="3">
+        <f>[1]Hoja1!DA5-[1]Hoja1!CZ5</f>
+        <v>31</v>
+      </c>
+      <c r="DB5" s="3">
+        <f>[1]Hoja1!DB5-[1]Hoja1!DA5</f>
+        <v>53</v>
+      </c>
+      <c r="DC5" s="3">
+        <f>[1]Hoja1!DC5-[1]Hoja1!DB5</f>
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -8712,8 +9016,24 @@
         <f>[1]Hoja1!CY6-[1]Hoja1!CX6</f>
         <v>25</v>
       </c>
+      <c r="CZ6" s="3">
+        <f>[1]Hoja1!CZ6-[1]Hoja1!CY6</f>
+        <v>51</v>
+      </c>
+      <c r="DA6" s="3">
+        <f>[1]Hoja1!DA6-[1]Hoja1!CZ6</f>
+        <v>45</v>
+      </c>
+      <c r="DB6" s="3">
+        <f>[1]Hoja1!DB6-[1]Hoja1!DA6</f>
+        <v>38</v>
+      </c>
+      <c r="DC6" s="3">
+        <f>[1]Hoja1!DC6-[1]Hoja1!DB6</f>
+        <v>38</v>
+      </c>
     </row>
-    <row r="7" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -9125,8 +9445,24 @@
         <f>[1]Hoja1!CY7-[1]Hoja1!CX7</f>
         <v>6</v>
       </c>
+      <c r="CZ7" s="3">
+        <f>[1]Hoja1!CZ7-[1]Hoja1!CY7</f>
+        <v>16</v>
+      </c>
+      <c r="DA7" s="3">
+        <f>[1]Hoja1!DA7-[1]Hoja1!CZ7</f>
+        <v>77</v>
+      </c>
+      <c r="DB7" s="3">
+        <f>[1]Hoja1!DB7-[1]Hoja1!DA7</f>
+        <v>51</v>
+      </c>
+      <c r="DC7" s="3">
+        <f>[1]Hoja1!DC7-[1]Hoja1!DB7</f>
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -9538,8 +9874,24 @@
         <f>[1]Hoja1!CY8-[1]Hoja1!CX8</f>
         <v>1</v>
       </c>
+      <c r="CZ8" s="3">
+        <f>[1]Hoja1!CZ8-[1]Hoja1!CY8</f>
+        <v>9</v>
+      </c>
+      <c r="DA8" s="3">
+        <f>[1]Hoja1!DA8-[1]Hoja1!CZ8</f>
+        <v>0</v>
+      </c>
+      <c r="DB8" s="3">
+        <f>[1]Hoja1!DB8-[1]Hoja1!DA8</f>
+        <v>8</v>
+      </c>
+      <c r="DC8" s="3">
+        <f>[1]Hoja1!DC8-[1]Hoja1!DB8</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -9951,8 +10303,24 @@
         <f>[1]Hoja1!CY9-[1]Hoja1!CX9</f>
         <v>22</v>
       </c>
+      <c r="CZ9" s="3">
+        <f>[1]Hoja1!CZ9-[1]Hoja1!CY9</f>
+        <v>108</v>
+      </c>
+      <c r="DA9" s="3">
+        <f>[1]Hoja1!DA9-[1]Hoja1!CZ9</f>
+        <v>152</v>
+      </c>
+      <c r="DB9" s="3">
+        <f>[1]Hoja1!DB9-[1]Hoja1!DA9</f>
+        <v>124</v>
+      </c>
+      <c r="DC9" s="3">
+        <f>[1]Hoja1!DC9-[1]Hoja1!DB9</f>
+        <v>187</v>
+      </c>
     </row>
-    <row r="10" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -10364,8 +10732,24 @@
         <f>[1]Hoja1!CY10-[1]Hoja1!CX10</f>
         <v>27</v>
       </c>
+      <c r="CZ10" s="3">
+        <f>[1]Hoja1!CZ10-[1]Hoja1!CY10</f>
+        <v>10</v>
+      </c>
+      <c r="DA10" s="3">
+        <f>[1]Hoja1!DA10-[1]Hoja1!CZ10</f>
+        <v>16</v>
+      </c>
+      <c r="DB10" s="3">
+        <f>[1]Hoja1!DB10-[1]Hoja1!DA10</f>
+        <v>11</v>
+      </c>
+      <c r="DC10" s="3">
+        <f>[1]Hoja1!DC10-[1]Hoja1!DB10</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -10777,8 +11161,24 @@
         <f>[1]Hoja1!CY11-[1]Hoja1!CX11</f>
         <v>0</v>
       </c>
+      <c r="CZ11" s="3">
+        <f>[1]Hoja1!CZ11-[1]Hoja1!CY11</f>
+        <v>5</v>
+      </c>
+      <c r="DA11" s="3">
+        <f>[1]Hoja1!DA11-[1]Hoja1!CZ11</f>
+        <v>3</v>
+      </c>
+      <c r="DB11" s="3">
+        <f>[1]Hoja1!DB11-[1]Hoja1!DA11</f>
+        <v>-1</v>
+      </c>
+      <c r="DC11" s="3">
+        <f>[1]Hoja1!DC11-[1]Hoja1!DB11</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -11190,8 +11590,24 @@
         <f>[1]Hoja1!CY12-[1]Hoja1!CX12</f>
         <v>10</v>
       </c>
+      <c r="CZ12" s="3">
+        <f>[1]Hoja1!CZ12-[1]Hoja1!CY12</f>
+        <v>1</v>
+      </c>
+      <c r="DA12" s="3">
+        <f>[1]Hoja1!DA12-[1]Hoja1!CZ12</f>
+        <v>2</v>
+      </c>
+      <c r="DB12" s="3">
+        <f>[1]Hoja1!DB12-[1]Hoja1!DA12</f>
+        <v>2</v>
+      </c>
+      <c r="DC12" s="3">
+        <f>[1]Hoja1!DC12-[1]Hoja1!DB12</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="13" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -11603,8 +12019,24 @@
         <f>[1]Hoja1!CY13-[1]Hoja1!CX13</f>
         <v>1</v>
       </c>
+      <c r="CZ13" s="3">
+        <f>[1]Hoja1!CZ13-[1]Hoja1!CY13</f>
+        <v>8</v>
+      </c>
+      <c r="DA13" s="3">
+        <f>[1]Hoja1!DA13-[1]Hoja1!CZ13</f>
+        <v>7</v>
+      </c>
+      <c r="DB13" s="3">
+        <f>[1]Hoja1!DB13-[1]Hoja1!DA13</f>
+        <v>7</v>
+      </c>
+      <c r="DC13" s="3">
+        <f>[1]Hoja1!DC13-[1]Hoja1!DB13</f>
+        <v>-54</v>
+      </c>
     </row>
-    <row r="14" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -12016,8 +12448,24 @@
         <f>[1]Hoja1!CY14-[1]Hoja1!CX14</f>
         <v>2</v>
       </c>
+      <c r="CZ14" s="3">
+        <f>[1]Hoja1!CZ14-[1]Hoja1!CY14</f>
+        <v>4</v>
+      </c>
+      <c r="DA14" s="3">
+        <f>[1]Hoja1!DA14-[1]Hoja1!CZ14</f>
+        <v>6</v>
+      </c>
+      <c r="DB14" s="3">
+        <f>[1]Hoja1!DB14-[1]Hoja1!DA14</f>
+        <v>4</v>
+      </c>
+      <c r="DC14" s="3">
+        <f>[1]Hoja1!DC14-[1]Hoja1!DB14</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -12429,8 +12877,24 @@
         <f>[1]Hoja1!CY15-[1]Hoja1!CX15</f>
         <v>0</v>
       </c>
+      <c r="CZ15" s="3">
+        <f>[1]Hoja1!CZ15-[1]Hoja1!CY15</f>
+        <v>1</v>
+      </c>
+      <c r="DA15" s="3">
+        <f>[1]Hoja1!DA15-[1]Hoja1!CZ15</f>
+        <v>1</v>
+      </c>
+      <c r="DB15" s="3">
+        <f>[1]Hoja1!DB15-[1]Hoja1!DA15</f>
+        <v>1</v>
+      </c>
+      <c r="DC15" s="3">
+        <f>[1]Hoja1!DC15-[1]Hoja1!DB15</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="16" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -12842,8 +13306,24 @@
         <f>[1]Hoja1!CY16-[1]Hoja1!CX16</f>
         <v>0</v>
       </c>
+      <c r="CZ16" s="3">
+        <f>[1]Hoja1!CZ16-[1]Hoja1!CY16</f>
+        <v>1</v>
+      </c>
+      <c r="DA16" s="3">
+        <f>[1]Hoja1!DA16-[1]Hoja1!CZ16</f>
+        <v>0</v>
+      </c>
+      <c r="DB16" s="3">
+        <f>[1]Hoja1!DB16-[1]Hoja1!DA16</f>
+        <v>0</v>
+      </c>
+      <c r="DC16" s="3">
+        <f>[1]Hoja1!DC16-[1]Hoja1!DB16</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -13255,8 +13735,24 @@
         <f>[1]Hoja1!CY17-[1]Hoja1!CX17</f>
         <v>5</v>
       </c>
+      <c r="CZ17" s="3">
+        <f>[1]Hoja1!CZ17-[1]Hoja1!CY17</f>
+        <v>0</v>
+      </c>
+      <c r="DA17" s="3">
+        <f>[1]Hoja1!DA17-[1]Hoja1!CZ17</f>
+        <v>2</v>
+      </c>
+      <c r="DB17" s="3">
+        <f>[1]Hoja1!DB17-[1]Hoja1!DA17</f>
+        <v>4</v>
+      </c>
+      <c r="DC17" s="3">
+        <f>[1]Hoja1!DC17-[1]Hoja1!DB17</f>
+        <v>10</v>
+      </c>
     </row>
-    <row r="18" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -13668,8 +14164,24 @@
         <f>[1]Hoja1!CY18-[1]Hoja1!CX18</f>
         <v>3</v>
       </c>
+      <c r="CZ18" s="3">
+        <f>[1]Hoja1!CZ18-[1]Hoja1!CY18</f>
+        <v>2</v>
+      </c>
+      <c r="DA18" s="3">
+        <f>[1]Hoja1!DA18-[1]Hoja1!CZ18</f>
+        <v>10</v>
+      </c>
+      <c r="DB18" s="3">
+        <f>[1]Hoja1!DB18-[1]Hoja1!DA18</f>
+        <v>4</v>
+      </c>
+      <c r="DC18" s="3">
+        <f>[1]Hoja1!DC18-[1]Hoja1!DB18</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -14081,8 +14593,24 @@
         <f>[1]Hoja1!CY19-[1]Hoja1!CX19</f>
         <v>1</v>
       </c>
+      <c r="CZ19" s="3">
+        <f>[1]Hoja1!CZ19-[1]Hoja1!CY19</f>
+        <v>0</v>
+      </c>
+      <c r="DA19" s="3">
+        <f>[1]Hoja1!DA19-[1]Hoja1!CZ19</f>
+        <v>0</v>
+      </c>
+      <c r="DB19" s="3">
+        <f>[1]Hoja1!DB19-[1]Hoja1!DA19</f>
+        <v>0</v>
+      </c>
+      <c r="DC19" s="3">
+        <f>[1]Hoja1!DC19-[1]Hoja1!DB19</f>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="20" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -14494,8 +15022,24 @@
         <f>[1]Hoja1!CY20-[1]Hoja1!CX20</f>
         <v>2</v>
       </c>
+      <c r="CZ20" s="3">
+        <f>[1]Hoja1!CZ20-[1]Hoja1!CY20</f>
+        <v>4</v>
+      </c>
+      <c r="DA20" s="3">
+        <f>[1]Hoja1!DA20-[1]Hoja1!CZ20</f>
+        <v>2</v>
+      </c>
+      <c r="DB20" s="3">
+        <f>[1]Hoja1!DB20-[1]Hoja1!DA20</f>
+        <v>8</v>
+      </c>
+      <c r="DC20" s="3">
+        <f>[1]Hoja1!DC20-[1]Hoja1!DB20</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -14585,7 +15129,7 @@
       <c r="CJ24" s="3"/>
       <c r="CK24" s="3"/>
     </row>
-    <row r="25" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -14675,7 +15219,7 @@
       <c r="CJ25" s="3"/>
       <c r="CK25" s="3"/>
     </row>
-    <row r="26" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -14765,7 +15309,7 @@
       <c r="CJ26" s="3"/>
       <c r="CK26" s="3"/>
     </row>
-    <row r="27" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -14855,7 +15399,7 @@
       <c r="CJ27" s="3"/>
       <c r="CK27" s="3"/>
     </row>
-    <row r="28" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -14945,7 +15489,7 @@
       <c r="CJ28" s="3"/>
       <c r="CK28" s="3"/>
     </row>
-    <row r="29" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -15035,7 +15579,7 @@
       <c r="CJ29" s="3"/>
       <c r="CK29" s="3"/>
     </row>
-    <row r="30" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -15125,7 +15669,7 @@
       <c r="CJ30" s="3"/>
       <c r="CK30" s="3"/>
     </row>
-    <row r="31" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -15215,7 +15759,7 @@
       <c r="CJ31" s="3"/>
       <c r="CK31" s="3"/>
     </row>
-    <row r="32" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:107" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
